--- a/biology/Botanique/Docosia/Docosia.xlsx
+++ b/biology/Botanique/Docosia/Docosia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Docosia est un genre d'insectes Diptères de la famille des Mycetophilidae. Ces mouches au corps sombre et velu, principalement holarctiques, sont, pour celles qui sont connues, mycophages.
 </t>
@@ -511,11 +523,13 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il s'agit de mouches uniformes de taille moyenne au corps sombre et aux ailes hyalines non marquées. Traditionnellement placé dans la sous-famille des Leiinae, en raison de la nervation des ailes avec une R1 courte et une rm transversale presque horizontale, Docosia est placé par les études moléculaires récentes au sein des Gnoristinae. Il se distingue des autres genres principalement par la nervation de ses ailes et par la particularité de ses genitalia mâles, où la plupart des espèces connues ont des cerques avec des peignes rétinaculés. Leur identification intragénérique est principalement basée sur les genitalia mâles et femelles[1],[2],[3].
-Les données sur la biologie de Docosia sont rares, à l'exception de l'espèce mycophage commune Docosia gilvipes. Une espèce (Docosia fumosa) a été élevée à partir de nids de Merle noir[4].
-Bien que Docosia soit un genre principalement holarctique, plusieurs espèces ont également été signalées dans les écozones néotropicale, afrotropicale et indomalaise[1]. Au total, 32 espèces décrites sont actuellement connues en Europe[5].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il s'agit de mouches uniformes de taille moyenne au corps sombre et aux ailes hyalines non marquées. Traditionnellement placé dans la sous-famille des Leiinae, en raison de la nervation des ailes avec une R1 courte et une rm transversale presque horizontale, Docosia est placé par les études moléculaires récentes au sein des Gnoristinae. Il se distingue des autres genres principalement par la nervation de ses ailes et par la particularité de ses genitalia mâles, où la plupart des espèces connues ont des cerques avec des peignes rétinaculés. Leur identification intragénérique est principalement basée sur les genitalia mâles et femelles.
+Les données sur la biologie de Docosia sont rares, à l'exception de l'espèce mycophage commune Docosia gilvipes. Une espèce (Docosia fumosa) a été élevée à partir de nids de Merle noir.
+Bien que Docosia soit un genre principalement holarctique, plusieurs espèces ont également été signalées dans les écozones néotropicale, afrotropicale et indomalaise. Au total, 32 espèces décrites sont actuellement connues en Europe.
 </t>
         </is>
       </c>
@@ -544,9 +558,11 @@
           <t>Espèces européennes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon Fauna Europaea[6] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Fauna Europaea :
 Docosia canaripes
 Docosia carbonaria
 Docosia diutina
@@ -594,9 +610,11 @@
           <t>Ensemble des espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon Catalogue of Life[7] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Catalogue of Life :
 Docosia aceus Garrett, 1925
 Docosia adusta Oliveira &amp; Amorim, 2012
 Docosia affinis Garrett, 1925
